--- a/sql_generator/sql.xlsx
+++ b/sql_generator/sql.xlsx
@@ -1,19 +1,81 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
   <workbookPr date1904="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/summer/PycharmProjects/zazaza/sql_generator/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="25600" yWindow="460" windowWidth="38400" windowHeight="21060" activeTab="8"/>
   </bookViews>
   <sheets>
-    <sheet name="HEAD" sheetId="1" r:id="rId4"/>
-    <sheet name="T_SEEKF_ORDER" sheetId="2" r:id="rId5"/>
+    <sheet name="HEAD" sheetId="1" r:id="rId1"/>
+    <sheet name="trans_order" sheetId="2" r:id="rId2"/>
+    <sheet name="sale_order" sheetId="3" r:id="rId3"/>
+    <sheet name="goods" sheetId="4" r:id="rId4"/>
+    <sheet name="goods_tmp" sheetId="9" r:id="rId5"/>
+    <sheet name="sub_goods" sheetId="10" r:id="rId6"/>
+    <sheet name="sub_goods_tmp" sheetId="11" r:id="rId7"/>
+    <sheet name="order_goods" sheetId="6" r:id="rId8"/>
+    <sheet name="stock_goods" sheetId="13" r:id="rId9"/>
+    <sheet name="store" sheetId="8" r:id="rId10"/>
+    <sheet name="category" sheetId="12" r:id="rId11"/>
   </sheets>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Microsoft Office 用户</author>
+  </authors>
+  <commentList>
+    <comment ref="H12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Microsoft Office 用户:
+1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <charset val="128"/>
+          </rPr>
+          <t>：未审核
+2：已审核
+3：已发货
+4：已收货
+5：审核不通过</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="162">
   <si>
     <t>DB_NAME</t>
   </si>
@@ -24,24 +86,12 @@
     <t>CHARSET</t>
   </si>
   <si>
-    <t>db_seekf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">just a test db </t>
-  </si>
-  <si>
     <t>utf-8</t>
   </si>
   <si>
     <t>TABLE NAME</t>
   </si>
   <si>
-    <t>T_SEEKF_ORDER</t>
-  </si>
-  <si>
-    <t>订单表</t>
-  </si>
-  <si>
     <t>COLUMN NAME</t>
   </si>
   <si>
@@ -84,97 +134,944 @@
     <t>INDEX3</t>
   </si>
   <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>订单号</t>
+  </si>
+  <si>
+    <t>varchar</t>
+  </si>
+  <si>
+    <t>db_chaoyi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chaiyi store system</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>调拨订单表</t>
+    <rPh sb="0" eb="1">
+      <t>diao'bo</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>trans_order_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>branch_store_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>main_store_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>char</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>address_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>address_phone</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>address_detail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分店ID</t>
+    <rPh sb="0" eb="1">
+      <t>fen'dian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总店ID</t>
+    <rPh sb="0" eb="1">
+      <t>zong'dian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收件人</t>
+    <rPh sb="0" eb="1">
+      <t>shou'jian'ren</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号</t>
+    <rPh sb="0" eb="1">
+      <t>shou'ji'hao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细地址</t>
+    <rPh sb="0" eb="1">
+      <t>xiang'xi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>di'zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>total_amount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>货物总件数</t>
+    <rPh sb="0" eb="1">
+      <t>huo'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zong'jian'shu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>total_price</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单总价</t>
+    <rPh sb="0" eb="1">
+      <t>ding'd</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zong'jia</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>trans_order</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>调拨订单表</t>
+    <rPh sb="0" eb="1">
+      <t>diao'bo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ding'dan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>biao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sale_order</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售订单表</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'shou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ding'dan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>biao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>state</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单状态</t>
+    <rPh sb="0" eb="1">
+      <t>ding'd</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhuang't</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售订单表</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'shou</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sale_order_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单状态</t>
+    <rPh sb="0" eb="1">
+      <t>ding'dan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhuang't</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付时间</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'fu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi'jian'chuo</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>send_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>recive_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发货时间</t>
+    <rPh sb="0" eb="1">
+      <t>fa'huo</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收货时间</t>
+    <rPh sb="0" eb="1">
+      <t>shou'huo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi'jian'chuo</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>trans_company</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>32</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物流公司</t>
+    <rPh sb="0" eb="1">
+      <t>wu'liu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gong'si</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物流单号</t>
+    <rPh sb="0" eb="1">
+      <t>wu'liu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dan'hao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>trans_content</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物流跟踪</t>
+    <rPh sb="0" eb="1">
+      <t>wu'liu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gen'zong</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>goods</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品表</t>
+    <rPh sb="0" eb="1">
+      <t>shang'p</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>biao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_goods</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单商品表</t>
+    <rPh sb="0" eb="1">
+      <t>ding'dan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shang'p</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>biao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>store</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>店铺表</t>
+    <rPh sb="0" eb="1">
+      <t>dian'pu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>biao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付方式</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'fu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fang'shi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BACK_TO_HEAD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品表</t>
+    <rPh sb="0" eb="1">
+      <t>shang'pin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>biao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>store_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>main_store</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>store_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>username</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>店铺ID</t>
+    <rPh sb="0" eb="1">
+      <t>dian'pu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>店名</t>
+    <rPh sb="0" eb="1">
+      <t>dian'zhu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>店长</t>
+    <rPh sb="0" eb="1">
+      <t>dian'zhu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>zhang</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系电话</t>
+    <rPh sb="0" eb="1">
+      <t>lian'xi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dian'h</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>店铺地址</t>
+    <rPh sb="0" eb="1">
+      <t>dian'pu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>di'zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名</t>
+    <rPh sb="0" eb="1">
+      <t>yong'hu'm</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <rPh sb="0" eb="1">
+      <t>mi'ma</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>店铺状态</t>
+    <rPh sb="0" eb="1">
+      <t>dian'pu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhuang't</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>backup1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>backup2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备用1</t>
+    <rPh sb="0" eb="1">
+      <t>bei'yong</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备用2</t>
+    <rPh sb="0" eb="1">
+      <t>bei'yong</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>goods_no</t>
+  </si>
+  <si>
+    <t>goods_no</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>category_id</t>
+  </si>
+  <si>
+    <t>category_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>img_url</t>
+  </si>
+  <si>
+    <t>img_url</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品编号</t>
+    <rPh sb="0" eb="1">
+      <t>shang'p</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bian'hao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类ID</t>
+  </si>
+  <si>
+    <t>分类ID</t>
+    <rPh sb="0" eb="1">
+      <t>fen'lei</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片URL</t>
+  </si>
+  <si>
+    <t>图片URL</t>
+    <rPh sb="0" eb="1">
+      <t>tu'p</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>backup1</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>备用1</t>
+  </si>
+  <si>
+    <t>backup2</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>备用2</t>
+  </si>
+  <si>
+    <t>BACK_TO_HEAD</t>
+  </si>
+  <si>
+    <t>goods_tmp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品临时表</t>
+    <rPh sb="2" eb="3">
+      <t>lin'shi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品ID</t>
+    <rPh sb="0" eb="1">
+      <t>shang'p</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品编号</t>
+    <rPh sb="0" eb="1">
+      <t>shagn'p</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bian'hao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单商品表</t>
+    <rPh sb="0" eb="1">
+      <t>ding'dan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shagn'p</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>biao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>order_id</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>订单号</t>
-  </si>
-  <si>
-    <t>user_id</t>
-  </si>
-  <si>
-    <t>用户id</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>varchar</t>
-  </si>
-  <si>
-    <t>阿尔法士大夫水电费</t>
-  </si>
-  <si>
-    <t>地址</t>
-  </si>
-  <si>
-    <t>create_time</t>
-  </si>
-  <si>
-    <t>timestamp</t>
-  </si>
-  <si>
-    <t>创建时间戳</t>
-  </si>
-  <si>
-    <t>create_date</t>
-  </si>
-  <si>
-    <t>char</t>
-  </si>
-  <si>
-    <t>创建日期</t>
-  </si>
-  <si>
-    <t>p_ddd</t>
-  </si>
-  <si>
-    <t>decimal</t>
-  </si>
-  <si>
-    <t>15,2</t>
-  </si>
-  <si>
-    <t>asdfssdf</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>quantity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub_goods</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品子类表</t>
+    <rPh sb="0" eb="1">
+      <t>shang'p</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zi'lei</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>biao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub_goods_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>goods_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>model</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品子类ID</t>
+    <rPh sb="0" eb="1">
+      <t>shang'p</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zi'lei</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品尺码类别</t>
+    <rPh sb="0" eb="1">
+      <t>shang'p</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chi'ma</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>lei'bie</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
+    <rPh sb="0" eb="1">
+      <t>jia'ge</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品类别表</t>
+    <rPh sb="0" eb="1">
+      <t>shagn'p</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lei'bie</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>biao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>category_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>parent_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>class_list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类目录</t>
+    <rPh sb="0" eb="1">
+      <t>fen'lei</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mu'l</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>父ID</t>
+    <rPh sb="0" eb="1">
+      <t>fu'q</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类名称</t>
+    <rPh sb="0" eb="1">
+      <t>fen'l</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ming'c</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>class_layer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类层级</t>
+    <rPh sb="0" eb="1">
+      <t>fen'lei</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cneg'ji</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序权重</t>
+    <rPh sb="0" eb="1">
+      <t>pai'xu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>quan'zhogn</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sort_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品临时表</t>
+    <rPh sb="0" eb="1">
+      <t>shang'p</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lin'shi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>biao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub_goods_tmp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品子类临时表</t>
+    <rPh sb="0" eb="1">
+      <t>shang'p</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zi'lei</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>lin'shi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>biao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品分类表</t>
+    <rPh sb="0" eb="1">
+      <t>shang'p</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fen'lei'biao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>owner</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单类型</t>
+    <rPh sb="0" eb="1">
+      <t>ding'd</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lei'x</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <rPh sb="0" eb="1">
+      <t>shu'liang</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stock_goods</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存商品表</t>
+    <rPh sb="0" eb="1">
+      <t>ku'cun</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shagn'p</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>biao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存商品表</t>
+    <rPh sb="0" eb="1">
+      <t>ku'cun</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shang'p</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>biao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>store_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
     </font>
     <font>
-      <sz val="13"/>
-      <color indexed="8"/>
+      <sz val="9"/>
       <name val="Helvetica"/>
     </font>
     <font>
-      <b val="1"/>
+      <u/>
       <sz val="10"/>
-      <color indexed="8"/>
+      <color theme="10"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="81"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="81"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Helvetica"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -199,8 +1096,26 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBDC0BF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDBDBDB"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -313,90 +1228,275 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFA5A5A5"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFA5A5A5"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFA5A5A5"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFA5A5A5"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFA5A5A5"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFA5A5A5"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFA5A5A5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFA5A5A5"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFA5A5A5"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellStyleXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="26">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="13">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
-      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FFDBDBDB"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="00F20884"/>
+      <rgbColor rgb="0000ABEA"/>
+      <rgbColor rgb="00900000"/>
+      <rgbColor rgb="00006411"/>
+      <rgbColor rgb="00000090"/>
+      <rgbColor rgb="0090713A"/>
+      <rgbColor rgb="004600A5"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -522,7 +1622,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -531,7 +1631,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -540,7 +1640,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -614,7 +1714,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
@@ -622,7 +1722,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -641,7 +1741,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -671,7 +1771,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -697,7 +1797,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -723,7 +1823,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -749,7 +1849,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -775,7 +1875,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -801,7 +1901,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -827,7 +1927,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -853,7 +1953,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -879,7 +1979,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -892,9 +1992,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -909,7 +2015,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
@@ -917,7 +2023,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -936,7 +2042,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -962,7 +2068,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -988,7 +2094,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1014,7 +2120,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1040,7 +2146,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1066,7 +2172,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1092,7 +2198,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1118,7 +2224,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1144,7 +2250,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1170,7 +2276,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1183,9 +2289,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1199,7 +2311,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1218,7 +2330,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1248,7 +2360,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1274,7 +2386,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1300,7 +2412,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1326,7 +2438,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1352,7 +2464,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1378,7 +2490,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1404,7 +2516,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1430,7 +2542,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1456,7 +2568,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1469,45 +2581,48 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" zoomScale="157" zoomScaleNormal="157" zoomScalePageLayoutView="157" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
-    <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="7" width="16.33203125" style="1" customWidth="1"/>
+    <col min="8" max="256" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.55" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3"/>
@@ -1515,22 +2630,22 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" ht="20.55" customHeight="1">
-      <c r="A2" t="s" s="4">
+    <row r="2" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" t="s" s="5">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s" s="6">
-        <v>5</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" ht="20.35" customHeight="1">
+    <row r="3" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8"/>
       <c r="B3" s="9"/>
       <c r="C3" s="10"/>
@@ -1539,7 +2654,7 @@
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" ht="20.35" customHeight="1">
+    <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="8"/>
       <c r="B4" s="9"/>
       <c r="C4" s="10"/>
@@ -1548,7 +2663,7 @@
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" ht="20.35" customHeight="1">
+    <row r="5" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8"/>
       <c r="B5" s="9"/>
       <c r="C5" s="10"/>
@@ -1557,7 +2672,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" ht="20.35" customHeight="1">
+    <row r="6" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="8"/>
       <c r="B6" s="9"/>
       <c r="C6" s="10"/>
@@ -1566,97 +2681,137 @@
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" ht="20.35" customHeight="1">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
+    <row r="7" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>48</v>
+      </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
     </row>
-    <row r="8" ht="20.35" customHeight="1">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
+    <row r="8" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>50</v>
+      </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
     </row>
-    <row r="9" ht="20.35" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
+    <row r="9" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>72</v>
+      </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
     </row>
-    <row r="10" ht="20.35" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
+    <row r="10" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>151</v>
+      </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
     </row>
-    <row r="11" ht="20.35" customHeight="1">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
+    <row r="11" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>132</v>
+      </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="12" ht="20.35" customHeight="1">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9"/>
+    <row r="12" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>153</v>
+      </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
     </row>
-    <row r="13" ht="20.35" customHeight="1">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
+    <row r="13" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>74</v>
+      </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
     </row>
-    <row r="14" ht="20.35" customHeight="1">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9"/>
+    <row r="14" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>160</v>
+      </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
     </row>
-    <row r="15" ht="20.35" customHeight="1">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9"/>
+    <row r="15" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>76</v>
+      </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
     </row>
-    <row r="16" ht="20.35" customHeight="1">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9"/>
+    <row r="16" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>154</v>
+      </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
     </row>
-    <row r="17" ht="20.35" customHeight="1">
+    <row r="17" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="8"/>
       <c r="B17" s="9"/>
       <c r="C17" s="10"/>
@@ -1665,7 +2820,7 @@
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
     </row>
-    <row r="18" ht="20.35" customHeight="1">
+    <row r="18" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
       <c r="C18" s="10"/>
@@ -1674,7 +2829,7 @@
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
     </row>
-    <row r="19" ht="20.35" customHeight="1">
+    <row r="19" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="8"/>
       <c r="B19" s="9"/>
       <c r="C19" s="10"/>
@@ -1683,7 +2838,7 @@
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
     </row>
-    <row r="20" ht="20.35" customHeight="1">
+    <row r="20" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="8"/>
       <c r="B20" s="9"/>
       <c r="C20" s="10"/>
@@ -1692,7 +2847,7 @@
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
     </row>
-    <row r="21" ht="20.35" customHeight="1">
+    <row r="21" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="8"/>
       <c r="B21" s="9"/>
       <c r="C21" s="10"/>
@@ -1701,7 +2856,7 @@
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
     </row>
-    <row r="22" ht="20.35" customHeight="1">
+    <row r="22" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="8"/>
       <c r="B22" s="9"/>
       <c r="C22" s="10"/>
@@ -1710,52 +2865,77 @@
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
     </row>
+    <row r="23" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="8"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+    </row>
+    <row r="24" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="8"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="8"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+    </row>
   </sheetData>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A7" location="trans_order!A1" display="trans_order"/>
+    <hyperlink ref="A8" location="sale_order!A1" display="sale_order"/>
+    <hyperlink ref="A9" location="goods!A1" display="goods"/>
+    <hyperlink ref="A13" location="order_goods!A1" display="order_goods"/>
+    <hyperlink ref="A15" location="store!A1" display="store"/>
+    <hyperlink ref="A10" location="goods_tmp!A1" display="goods_tmp"/>
+    <hyperlink ref="A11" location="sub_goods!A1" display="sub_goods"/>
+    <hyperlink ref="A12" location="sub_goods_tmp!A1" display="sub_goods_tmp"/>
+    <hyperlink ref="A16" location="category!A1" display="category"/>
+    <hyperlink ref="A14" location="stock_goods!A1" display="stock_goods"/>
+  </hyperlinks>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:N10"/>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="11" customWidth="1"/>
-    <col min="2" max="2" width="16.1719" style="11" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="11" customWidth="1"/>
-    <col min="4" max="4" width="3.85156" style="11" customWidth="1"/>
-    <col min="5" max="5" width="4.24219" style="11" customWidth="1"/>
-    <col min="6" max="6" width="3.67188" style="11" customWidth="1"/>
-    <col min="7" max="7" width="8.85156" style="11" customWidth="1"/>
-    <col min="8" max="8" width="11.5" style="11" customWidth="1"/>
-    <col min="9" max="9" width="8.67188" style="11" customWidth="1"/>
-    <col min="10" max="10" width="8.67188" style="11" customWidth="1"/>
-    <col min="11" max="11" width="8.67188" style="11" customWidth="1"/>
-    <col min="12" max="12" width="8.67188" style="11" customWidth="1"/>
-    <col min="13" max="13" width="8.67188" style="11" customWidth="1"/>
-    <col min="14" max="14" width="8.67188" style="11" customWidth="1"/>
-    <col min="15" max="256" width="16.3516" style="11" customWidth="1"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.55" customHeight="1">
-      <c r="A1" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s" s="2">
-        <v>8</v>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -1769,114 +2949,106 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
     </row>
-    <row r="2" ht="20.55" customHeight="1">
-      <c r="A2" t="s" s="4">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s" s="5">
+      <c r="F2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s" s="6">
+      <c r="G2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s" s="6">
+      <c r="H2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s" s="6">
+      <c r="I2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s" s="6">
+      <c r="J2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s" s="6">
+      <c r="K2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s" s="6">
+      <c r="L2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I2" t="s" s="6">
+      <c r="M2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J2" t="s" s="6">
+      <c r="N2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K2" t="s" s="6">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A3" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="L2" t="s" s="6">
-        <v>20</v>
-      </c>
-      <c r="M2" t="s" s="6">
-        <v>21</v>
-      </c>
-      <c r="N2" t="s" s="6">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" ht="22.35" customHeight="1">
-      <c r="A3" t="s" s="12">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s" s="13">
-        <v>24</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" t="s" s="14">
-        <v>25</v>
-      </c>
-      <c r="E3" t="s" s="14">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s" s="14">
-        <v>25</v>
+      <c r="E3" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>19</v>
       </c>
       <c r="G3" s="10"/>
-      <c r="H3" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="I3" t="s" s="14">
-        <v>25</v>
-      </c>
+      <c r="H3" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="I3" s="14"/>
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
     </row>
-    <row r="4" ht="22.35" customHeight="1">
-      <c r="A4" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="B4" t="s" s="13">
-        <v>24</v>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A4" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="C4" s="10"/>
-      <c r="D4" t="s" s="14">
-        <v>25</v>
-      </c>
-      <c r="E4" s="15"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
       <c r="F4" s="10"/>
-      <c r="G4" s="10">
-        <v>1234</v>
-      </c>
-      <c r="H4" t="s" s="14">
-        <v>28</v>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14" t="s">
+        <v>36</v>
       </c>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
-      <c r="L4" t="s" s="14">
-        <v>25</v>
-      </c>
-      <c r="M4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="14"/>
       <c r="N4" s="10"/>
     </row>
-    <row r="5" ht="22.35" customHeight="1">
-      <c r="A5" t="s" s="12">
-        <v>29</v>
-      </c>
-      <c r="B5" t="s" s="13">
-        <v>30</v>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A5" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="C5" s="10">
         <v>60</v>
@@ -1884,87 +3056,1688 @@
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
-      <c r="G5" t="s" s="14">
-        <v>31</v>
-      </c>
-      <c r="H5" t="s" s="14">
-        <v>32</v>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14" t="s">
+        <v>89</v>
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
-      <c r="M5" t="s" s="14">
-        <v>25</v>
-      </c>
+      <c r="M5" s="14"/>
       <c r="N5" s="10"/>
     </row>
-    <row r="6" ht="22.35" customHeight="1">
-      <c r="A6" t="s" s="12">
-        <v>33</v>
-      </c>
-      <c r="B6" t="s" s="13">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A6" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="10">
+        <v>60</v>
+      </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" t="s" s="14">
-        <v>35</v>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14" t="s">
+        <v>90</v>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
+      <c r="M6" s="14"/>
       <c r="N6" s="10"/>
     </row>
-    <row r="7" ht="22.35" customHeight="1">
-      <c r="A7" t="s" s="12">
-        <v>36</v>
-      </c>
-      <c r="B7" t="s" s="13">
-        <v>37</v>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A7" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="C7" s="10">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="10"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A8" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="10">
+        <v>150</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="10"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A9" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="10">
+        <v>16</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="10"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A10" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="10">
+        <v>32</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A11" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A12" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A13" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A15" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A15" location="HEAD!A1" display="BACK_TO_HEAD"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N13"/>
+  <sheetViews>
+    <sheetView zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="11" customWidth="1"/>
+    <col min="4" max="4" width="3.83203125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="4.1640625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="3.6640625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="11.5" style="11" customWidth="1"/>
+    <col min="9" max="14" width="8.6640625" style="11" customWidth="1"/>
+    <col min="15" max="256" width="16.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+    </row>
+    <row r="2" spans="1:14" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A3" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+    </row>
+    <row r="4" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="10">
+        <v>32</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="I4" s="14"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+    </row>
+    <row r="5" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+    </row>
+    <row r="6" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="10">
+        <v>32</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="10"/>
+    </row>
+    <row r="7" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="10"/>
+    </row>
+    <row r="8" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="10"/>
+    </row>
+    <row r="9" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A9" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+    </row>
+    <row r="10" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A10" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+    </row>
+    <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="N13"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A13" location="HEAD!A1" display="BACK_TO_HEAD"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="11" customWidth="1"/>
+    <col min="4" max="4" width="3.83203125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="4.1640625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="3.6640625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="11.5" style="11" customWidth="1"/>
+    <col min="9" max="14" width="8.6640625" style="11" customWidth="1"/>
+    <col min="15" max="256" width="16.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+    </row>
+    <row r="2" spans="1:14" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="10"/>
+      <c r="H3" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="14"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+    </row>
+    <row r="4" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+    </row>
+    <row r="5" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="10"/>
+    </row>
+    <row r="6" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="10">
+        <v>60</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="10"/>
+    </row>
+    <row r="7" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="10">
+        <v>32</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="10"/>
+    </row>
+    <row r="8" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="10">
+        <v>150</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="10"/>
+    </row>
+    <row r="9" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="10"/>
+    </row>
+    <row r="10" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="10"/>
+    </row>
+    <row r="11" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="10">
+        <v>14</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+    </row>
+    <row r="12" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="10">
+        <v>1</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+    </row>
+    <row r="13" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A13" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+    </row>
+    <row r="14" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A14" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+    </row>
+    <row r="18" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N19"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A18" location="HEAD!A1" display="BACK_TO_HEAD"/>
+  </hyperlinks>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N24"/>
+  <sheetViews>
+    <sheetView zoomScale="143" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="11" customWidth="1"/>
+    <col min="4" max="4" width="3.83203125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="4.1640625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="3.6640625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="11.5" style="11" customWidth="1"/>
+    <col min="9" max="14" width="8.6640625" style="11" customWidth="1"/>
+    <col min="15" max="256" width="16.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+    </row>
+    <row r="2" spans="1:14" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="10"/>
+      <c r="H3" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="14"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+    </row>
+    <row r="4" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+    </row>
+    <row r="5" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="10"/>
+    </row>
+    <row r="6" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="10">
+        <v>60</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="10"/>
+    </row>
+    <row r="7" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="10">
+        <v>32</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="10"/>
+    </row>
+    <row r="8" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="10">
+        <v>150</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="10"/>
+    </row>
+    <row r="9" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="10"/>
+    </row>
+    <row r="10" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="10"/>
+    </row>
+    <row r="11" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="10">
+        <v>14</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+    </row>
+    <row r="12" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="10">
+        <v>1</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+    </row>
+    <row r="13" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+    </row>
+    <row r="14" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="10">
+        <v>14</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+    </row>
+    <row r="15" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+    </row>
+    <row r="16" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+    </row>
+    <row r="17" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+    </row>
+    <row r="18" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+    </row>
+    <row r="19" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+    </row>
+    <row r="20" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A20" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+    </row>
+    <row r="21" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A21" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+    </row>
+    <row r="24" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A24" location="HEAD!A1" display="BACK_TO_HEAD"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N11"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="11" customWidth="1"/>
+    <col min="4" max="4" width="3.83203125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="4.1640625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="3.6640625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="11.5" style="11" customWidth="1"/>
+    <col min="9" max="14" width="8.6640625" style="11" customWidth="1"/>
+    <col min="15" max="256" width="16.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+    </row>
+    <row r="2" spans="1:14" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A3" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+    </row>
+    <row r="4" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="10">
+        <v>32</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="I4" s="14"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+    </row>
+    <row r="5" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+    </row>
+    <row r="6" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="10">
+        <v>150</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="10"/>
+    </row>
+    <row r="7" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A7" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
       <c r="G7" s="10"/>
-      <c r="H7" t="s" s="14">
-        <v>38</v>
+      <c r="H7" s="14" t="s">
+        <v>98</v>
       </c>
       <c r="I7" s="10"/>
-      <c r="J7" t="s" s="14">
-        <v>25</v>
-      </c>
+      <c r="J7" s="10"/>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
     </row>
-    <row r="8" ht="20.35" customHeight="1">
-      <c r="A8" t="s" s="12">
-        <v>39</v>
-      </c>
-      <c r="B8" t="s" s="13">
-        <v>40</v>
-      </c>
-      <c r="C8" t="s" s="14">
-        <v>41</v>
-      </c>
-      <c r="D8" t="s" s="14">
-        <v>25</v>
-      </c>
+    <row r="8" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A8" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="14"/>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
       <c r="G8" s="10"/>
-      <c r="H8" t="s" s="14">
-        <v>42</v>
+      <c r="H8" s="14" t="s">
+        <v>99</v>
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
@@ -1973,15 +4746,1191 @@
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
     </row>
-    <row r="9" ht="20.35" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
+    <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="N11"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A11" location="HEAD!A1" display="BACK_TO_HEAD"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N11"/>
+  <sheetViews>
+    <sheetView zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="180" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:14" ht="26" x14ac:dyDescent="0.15">
+      <c r="A1" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+    </row>
+    <row r="2" spans="1:14" ht="26" x14ac:dyDescent="0.15">
+      <c r="A2" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A3" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A4" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="23">
+        <v>32</v>
+      </c>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="I4" s="22"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A5" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="23"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A6" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="23">
+        <v>150</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="23"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A7" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" s="22"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A8" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" s="22"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+    </row>
+    <row r="11" spans="1:14" ht="26" x14ac:dyDescent="0.15">
+      <c r="A11" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A11" location="HEAD!A1" display="BACK_TO_HEAD"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N13"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="190" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="26" x14ac:dyDescent="0.15">
+      <c r="A1" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+    </row>
+    <row r="2" spans="1:14" ht="26" x14ac:dyDescent="0.15">
+      <c r="A2" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A4" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="I4" s="22"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A5" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="23">
+        <v>32</v>
+      </c>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="I5" s="22"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A6" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="23">
+        <v>32</v>
+      </c>
+      <c r="D6" s="22"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A7" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="23"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A8" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="23">
+        <v>150</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="23"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A9" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="22"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A10" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="22"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+    </row>
+    <row r="13" spans="1:14" ht="26" x14ac:dyDescent="0.15">
+      <c r="A13" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A13" location="HEAD!A1" display="BACK_TO_HEAD"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N13"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="190" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+    </row>
+    <row r="2" spans="1:14" ht="26" x14ac:dyDescent="0.15">
+      <c r="A2" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A4" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="I4" s="22"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A5" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="23">
+        <v>32</v>
+      </c>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="I5" s="22"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A6" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="23">
+        <v>32</v>
+      </c>
+      <c r="D6" s="22"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A7" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="23"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A8" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="23">
+        <v>150</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="23"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A9" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="22"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A10" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="22"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+    </row>
+    <row r="13" spans="1:14" ht="26" x14ac:dyDescent="0.15">
+      <c r="A13" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A13" location="HEAD!A1" display="BACK_TO_HEAD"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N13"/>
+  <sheetViews>
+    <sheetView zoomScale="187" zoomScaleNormal="187" zoomScalePageLayoutView="187" workbookViewId="0">
+      <selection activeCell="F4" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="26" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+    </row>
+    <row r="2" spans="1:14" ht="26" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A3" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" s="10"/>
+      <c r="H3" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="14"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A4" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="10">
+        <v>1</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A5" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="10"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A6" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="10"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A7" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="10"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A8" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="10"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A9" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
       <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
+      <c r="H9" s="14" t="s">
+        <v>98</v>
+      </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
@@ -1989,15 +5938,23 @@
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
     </row>
-    <row r="10" ht="20.35" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A10" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
       <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
+      <c r="H10" s="14" t="s">
+        <v>99</v>
+      </c>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
@@ -2005,11 +5962,248 @@
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
     </row>
+    <row r="13" spans="1:14" ht="26" x14ac:dyDescent="0.15">
+      <c r="A13" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A13" location="HEAD!A1" display="BACK_TO_HEAD"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="26" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A3" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" s="10"/>
+      <c r="H3" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="I3" s="14"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A4" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="10"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A5" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="10"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A6" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="10"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A7" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A8" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A11" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A11" location="HEAD!A1" display="BACK_TO_HEAD"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/sql_generator/sql.xlsx
+++ b/sql_generator/sql.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" activeTab="10"/>
+    <workbookView xWindow="25600" yWindow="460" windowWidth="38400" windowHeight="21060" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="HEAD" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
     <author>Microsoft Office 用户</author>
   </authors>
   <commentList>
-    <comment ref="H17" authorId="0">
+    <comment ref="H16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="152">
   <si>
     <t>DB_NAME</t>
   </si>
@@ -236,20 +236,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>total_amount</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>货物总件数</t>
-    <rPh sb="0" eb="1">
-      <t>huo'wu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zong'jian'shu</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>total_price</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -899,10 +885,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>owner</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>数量</t>
     <rPh sb="0" eb="1">
       <t>shu'liang</t>
@@ -976,6 +958,21 @@
       <t>zhe'kou</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>owner</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品编号</t>
   </si>
 </sst>
 </file>
@@ -1079,7 +1076,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1272,8 +1269,62 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFA5A5A5"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFA5A5A5"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFA5A5A5"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA5A5A5"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1331,8 +1382,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1420,8 +1486,20 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="24">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
@@ -1441,6 +1519,11 @@
     <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="23" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7"/>
@@ -2708,10 +2791,10 @@
     </row>
     <row r="7" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -2721,10 +2804,10 @@
     </row>
     <row r="8" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -2734,10 +2817,10 @@
     </row>
     <row r="9" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -2747,10 +2830,10 @@
     </row>
     <row r="10" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -2760,10 +2843,10 @@
     </row>
     <row r="11" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -2773,10 +2856,10 @@
     </row>
     <row r="12" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -2786,10 +2869,10 @@
     </row>
     <row r="13" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -2799,10 +2882,10 @@
     </row>
     <row r="14" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="16" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -2812,10 +2895,10 @@
     </row>
     <row r="15" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -2825,10 +2908,10 @@
     </row>
     <row r="16" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -2944,7 +3027,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD13"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2957,10 +3040,10 @@
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -3020,7 +3103,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>29</v>
@@ -3037,7 +3120,7 @@
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I3" s="14"/>
       <c r="J3" s="10"/>
@@ -3048,7 +3131,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>29</v>
@@ -3070,7 +3153,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>21</v>
@@ -3083,7 +3166,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="14"/>
       <c r="H5" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
@@ -3094,7 +3177,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>33</v>
@@ -3107,7 +3190,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="14"/>
       <c r="H6" s="14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
@@ -3118,7 +3201,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>33</v>
@@ -3131,7 +3214,7 @@
       <c r="F7" s="10"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
@@ -3142,7 +3225,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>33</v>
@@ -3155,7 +3238,7 @@
       <c r="F8" s="10"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
@@ -3166,7 +3249,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>28</v>
@@ -3179,7 +3262,7 @@
       <c r="F9" s="10"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
@@ -3190,7 +3273,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>28</v>
@@ -3203,7 +3286,7 @@
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
@@ -3214,20 +3297,20 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
       <c r="G11" s="10"/>
       <c r="H11" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
@@ -3238,7 +3321,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -3254,8 +3337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3277,10 +3360,10 @@
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -3340,7 +3423,7 @@
     </row>
     <row r="3" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A3" s="21" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B3" s="22" t="s">
         <v>29</v>
@@ -3349,11 +3432,11 @@
       <c r="D3" s="22"/>
       <c r="E3" s="22"/>
       <c r="F3" s="22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G3" s="22"/>
       <c r="H3" s="22" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I3" s="22"/>
       <c r="J3" s="22"/>
@@ -3364,7 +3447,7 @@
     </row>
     <row r="4" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>33</v>
@@ -3377,7 +3460,7 @@
       <c r="F4" s="14"/>
       <c r="G4" s="10"/>
       <c r="H4" s="14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I4" s="14"/>
       <c r="J4" s="10"/>
@@ -3388,7 +3471,7 @@
     </row>
     <row r="5" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>29</v>
@@ -3399,7 +3482,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
@@ -3410,7 +3493,7 @@
     </row>
     <row r="6" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>33</v>
@@ -3423,7 +3506,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="14"/>
       <c r="H6" s="14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
@@ -3434,7 +3517,7 @@
     </row>
     <row r="7" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>29</v>
@@ -3445,7 +3528,7 @@
       <c r="F7" s="10"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
@@ -3456,7 +3539,7 @@
     </row>
     <row r="8" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>29</v>
@@ -3467,7 +3550,7 @@
       <c r="F8" s="10"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
@@ -3478,7 +3561,7 @@
     </row>
     <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N11"/>
     </row>
@@ -3496,10 +3579,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A8" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3521,7 +3604,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>24</v>
@@ -3584,7 +3667,7 @@
     </row>
     <row r="3" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="26" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B3" s="27" t="s">
         <v>21</v>
@@ -3729,15 +3812,17 @@
         <v>40</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="10"/>
+        <v>41</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>42</v>
+      </c>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
@@ -3748,31 +3833,31 @@
     </row>
     <row r="10" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="12" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>44</v>
+        <v>28</v>
+      </c>
+      <c r="C10" s="10">
+        <v>14</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
-      <c r="G10" s="14"/>
+      <c r="G10" s="10"/>
       <c r="H10" s="14" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
-      <c r="M10" s="14"/>
+      <c r="M10" s="10"/>
       <c r="N10" s="10"/>
     </row>
     <row r="11" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="12" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>28</v>
@@ -3785,7 +3870,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="14" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
@@ -3794,22 +3879,22 @@
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
     </row>
-    <row r="12" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="10">
-        <v>14</v>
-      </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
+      <c r="C12" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
       <c r="G12" s="10"/>
       <c r="H12" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
@@ -3820,20 +3905,20 @@
     </row>
     <row r="13" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
       <c r="G13" s="10"/>
       <c r="H13" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
@@ -3844,20 +3929,20 @@
     </row>
     <row r="14" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="12" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>33</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
       <c r="G14" s="10"/>
       <c r="H14" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
@@ -3868,20 +3953,18 @@
     </row>
     <row r="15" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="12" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>63</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
       <c r="G15" s="10"/>
       <c r="H15" s="14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
@@ -3891,19 +3974,21 @@
       <c r="N15" s="10"/>
     </row>
     <row r="16" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
+      <c r="A16" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="10">
+        <v>1</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="14" t="s">
-        <v>68</v>
+      <c r="H16" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
@@ -3912,42 +3997,18 @@
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
     </row>
-    <row r="17" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="10">
-        <v>1</v>
-      </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
+    <row r="20" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="17" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="21" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="N22"/>
+      <c r="N21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A21" location="HEAD!A1" display="BACK_TO_HEAD"/>
+    <hyperlink ref="A20" location="HEAD!A1" display="BACK_TO_HEAD"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>
@@ -3960,10 +4021,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="143" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD19"/>
+    <sheetView topLeftCell="A5" zoomScale="143" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3985,10 +4046,10 @@
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -4048,7 +4109,7 @@
     </row>
     <row r="3" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>33</v>
@@ -4059,7 +4120,7 @@
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
       <c r="F3" s="14" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="14" t="s">
@@ -4190,18 +4251,20 @@
     </row>
     <row r="9" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="12" t="s">
-        <v>40</v>
+        <v>146</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="10"/>
+        <v>41</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>42</v>
+      </c>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14" t="s">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
@@ -4212,20 +4275,20 @@
     </row>
     <row r="10" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>42</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
@@ -4236,44 +4299,44 @@
     </row>
     <row r="11" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="12" t="s">
-        <v>149</v>
+        <v>27</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>44</v>
+        <v>28</v>
+      </c>
+      <c r="C11" s="10">
+        <v>14</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
-      <c r="G11" s="14"/>
+      <c r="G11" s="10"/>
       <c r="H11" s="14" t="s">
-        <v>150</v>
+        <v>39</v>
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
-      <c r="M11" s="14"/>
+      <c r="M11" s="10"/>
       <c r="N11" s="10"/>
     </row>
     <row r="12" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="12" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>28</v>
       </c>
       <c r="C12" s="10">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="14" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
@@ -4282,22 +4345,22 @@
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
     </row>
-    <row r="13" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="12" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="10">
-        <v>1</v>
-      </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
+      <c r="C13" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
       <c r="G13" s="10"/>
       <c r="H13" s="14" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
@@ -4306,22 +4369,22 @@
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
     </row>
-    <row r="14" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="12" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
+      <c r="C14" s="10">
+        <v>14</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
@@ -4330,22 +4393,22 @@
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
     </row>
-    <row r="15" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="10">
-        <v>14</v>
-      </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
+      <c r="C15" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
       <c r="G15" s="10"/>
       <c r="H15" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
@@ -4356,20 +4419,20 @@
     </row>
     <row r="16" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
       <c r="G16" s="10"/>
       <c r="H16" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
@@ -4380,20 +4443,20 @@
     </row>
     <row r="17" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="12" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
       <c r="G17" s="10"/>
       <c r="H17" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
@@ -4404,20 +4467,18 @@
     </row>
     <row r="18" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="12" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>63</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="15"/>
       <c r="F18" s="15"/>
       <c r="G18" s="10"/>
       <c r="H18" s="14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
@@ -4428,18 +4489,20 @@
     </row>
     <row r="19" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="12" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="14"/>
+        <v>28</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="D19" s="14"/>
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" s="10"/>
       <c r="H19" s="14" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
@@ -4448,39 +4511,15 @@
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
     </row>
-    <row r="20" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-    </row>
-    <row r="23" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="17" t="s">
-        <v>77</v>
+    <row r="22" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="17" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A23" location="HEAD!A1" display="BACK_TO_HEAD"/>
+    <hyperlink ref="A22" location="HEAD!A1" display="BACK_TO_HEAD"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -4514,10 +4553,10 @@
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -4577,7 +4616,7 @@
     </row>
     <row r="3" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A3" s="21" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B3" s="22" t="s">
         <v>29</v>
@@ -4586,11 +4625,11 @@
       <c r="D3" s="22"/>
       <c r="E3" s="22"/>
       <c r="F3" s="22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G3" s="22"/>
       <c r="H3" s="22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I3" s="22"/>
       <c r="J3" s="22"/>
@@ -4601,7 +4640,7 @@
     </row>
     <row r="4" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>33</v>
@@ -4614,7 +4653,7 @@
       <c r="F4" s="14"/>
       <c r="G4" s="10"/>
       <c r="H4" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I4" s="14"/>
       <c r="J4" s="10"/>
@@ -4625,7 +4664,7 @@
     </row>
     <row r="5" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>29</v>
@@ -4636,7 +4675,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
@@ -4647,7 +4686,7 @@
     </row>
     <row r="6" spans="1:14" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>33</v>
@@ -4660,7 +4699,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="14"/>
       <c r="H6" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
@@ -4671,7 +4710,7 @@
     </row>
     <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N9"/>
     </row>
@@ -4700,10 +4739,10 @@
         <v>4</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D1" s="20"/>
       <c r="E1" s="20"/>
@@ -4763,7 +4802,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="21" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B3" s="22" t="s">
         <v>29</v>
@@ -4772,11 +4811,11 @@
       <c r="D3" s="22"/>
       <c r="E3" s="22"/>
       <c r="F3" s="22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G3" s="22"/>
       <c r="H3" s="22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I3" s="22"/>
       <c r="J3" s="22"/>
@@ -4787,7 +4826,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="21" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B4" s="22" t="s">
         <v>21</v>
@@ -4800,7 +4839,7 @@
       <c r="F4" s="22"/>
       <c r="G4" s="23"/>
       <c r="H4" s="22" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I4" s="22"/>
       <c r="J4" s="23"/>
@@ -4811,10 +4850,10 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C5" s="23"/>
       <c r="D5" s="22"/>
@@ -4822,7 +4861,7 @@
       <c r="F5" s="23"/>
       <c r="G5" s="23"/>
       <c r="H5" s="22" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I5" s="23"/>
       <c r="J5" s="23"/>
@@ -4833,7 +4872,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="21" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B6" s="22" t="s">
         <v>21</v>
@@ -4846,7 +4885,7 @@
       <c r="F6" s="23"/>
       <c r="G6" s="22"/>
       <c r="H6" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
@@ -4889,7 +4928,7 @@
     </row>
     <row r="9" spans="1:14" ht="26" x14ac:dyDescent="0.15">
       <c r="A9" s="25" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B9" s="24"/>
       <c r="C9" s="24"/>
@@ -4920,7 +4959,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="190" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD10"/>
+      <selection activeCell="A7" sqref="A7:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4933,10 +4972,10 @@
         <v>4</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D1" s="20"/>
       <c r="E1" s="20"/>
@@ -4996,7 +5035,7 @@
     </row>
     <row r="3" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="21" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B3" s="22" t="s">
         <v>29</v>
@@ -5005,11 +5044,11 @@
       <c r="D3" s="22"/>
       <c r="E3" s="22"/>
       <c r="F3" s="22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G3" s="22"/>
       <c r="H3" s="22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I3" s="22"/>
       <c r="J3" s="22"/>
@@ -5020,7 +5059,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="21" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B4" s="22" t="s">
         <v>29</v>
@@ -5031,7 +5070,7 @@
       <c r="F4" s="22"/>
       <c r="G4" s="23"/>
       <c r="H4" s="22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I4" s="22"/>
       <c r="J4" s="23"/>
@@ -5042,7 +5081,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B5" s="22" t="s">
         <v>33</v>
@@ -5055,7 +5094,7 @@
       <c r="F5" s="22"/>
       <c r="G5" s="23"/>
       <c r="H5" s="22" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I5" s="22"/>
       <c r="J5" s="23"/>
@@ -5066,7 +5105,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B6" s="22" t="s">
         <v>33</v>
@@ -5079,7 +5118,7 @@
       <c r="F6" s="23"/>
       <c r="G6" s="23"/>
       <c r="H6" s="22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
@@ -5090,20 +5129,20 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="21" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="23"/>
       <c r="F7" s="23"/>
       <c r="G7" s="22"/>
       <c r="H7" s="22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I7" s="23"/>
       <c r="J7" s="23"/>
@@ -5114,7 +5153,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B8" s="22" t="s">
         <v>33</v>
@@ -5127,7 +5166,7 @@
       <c r="F8" s="23"/>
       <c r="G8" s="22"/>
       <c r="H8" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I8" s="23"/>
       <c r="J8" s="23"/>
@@ -5170,7 +5209,7 @@
     </row>
     <row r="11" spans="1:14" ht="26" x14ac:dyDescent="0.15">
       <c r="A11" s="25" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B11" s="24"/>
       <c r="C11" s="24"/>
@@ -5214,10 +5253,10 @@
         <v>4</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D1" s="20"/>
       <c r="E1" s="20"/>
@@ -5277,7 +5316,7 @@
     </row>
     <row r="3" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="21" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B3" s="22" t="s">
         <v>29</v>
@@ -5286,11 +5325,11 @@
       <c r="D3" s="22"/>
       <c r="E3" s="22"/>
       <c r="F3" s="22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G3" s="22"/>
       <c r="H3" s="22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I3" s="22"/>
       <c r="J3" s="22"/>
@@ -5301,7 +5340,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="21" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B4" s="22" t="s">
         <v>29</v>
@@ -5312,7 +5351,7 @@
       <c r="F4" s="22"/>
       <c r="G4" s="23"/>
       <c r="H4" s="22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I4" s="22"/>
       <c r="J4" s="23"/>
@@ -5323,7 +5362,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B5" s="22" t="s">
         <v>33</v>
@@ -5336,7 +5375,7 @@
       <c r="F5" s="22"/>
       <c r="G5" s="23"/>
       <c r="H5" s="22" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I5" s="22"/>
       <c r="J5" s="23"/>
@@ -5347,7 +5386,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B6" s="22" t="s">
         <v>33</v>
@@ -5360,7 +5399,7 @@
       <c r="F6" s="23"/>
       <c r="G6" s="23"/>
       <c r="H6" s="22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
@@ -5371,20 +5410,20 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="21" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="23"/>
       <c r="F7" s="23"/>
       <c r="G7" s="22"/>
       <c r="H7" s="22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I7" s="23"/>
       <c r="J7" s="23"/>
@@ -5395,7 +5434,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B8" s="22" t="s">
         <v>33</v>
@@ -5408,7 +5447,7 @@
       <c r="F8" s="23"/>
       <c r="G8" s="22"/>
       <c r="H8" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I8" s="23"/>
       <c r="J8" s="23"/>
@@ -5451,7 +5490,7 @@
     </row>
     <row r="11" spans="1:14" ht="26" x14ac:dyDescent="0.15">
       <c r="A11" s="25" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B11" s="24"/>
       <c r="C11" s="24"/>
@@ -5478,10 +5517,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView zoomScale="187" zoomScaleNormal="187" zoomScalePageLayoutView="187" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD11"/>
+      <selection activeCell="A9" sqref="A9:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5494,10 +5533,10 @@
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -5556,58 +5595,59 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A3" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="10">
-        <v>32</v>
-      </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
+      <c r="A3" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="31"/>
+      <c r="D3" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>94</v>
+      </c>
       <c r="F3" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
+        <v>143</v>
+      </c>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="G4" s="14"/>
+        <v>33</v>
+      </c>
+      <c r="C4" s="10">
+        <v>32</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="G4" s="10"/>
       <c r="H4" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="I4" s="10"/>
+        <v>20</v>
+      </c>
+      <c r="I4" s="32"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
-      <c r="M4" s="14"/>
+      <c r="M4" s="10"/>
       <c r="N4" s="10"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>29</v>
@@ -5615,10 +5655,9 @@
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
       <c r="G5" s="14"/>
       <c r="H5" s="14" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
@@ -5628,108 +5667,154 @@
       <c r="N5" s="10"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="23">
-        <v>32</v>
-      </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
+      <c r="A6" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="10"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="21" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B7" s="22" t="s">
         <v>33</v>
       </c>
       <c r="C7" s="23">
-        <v>150</v>
-      </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="22"/>
+        <v>32</v>
+      </c>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="23"/>
       <c r="H7" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="I7" s="23"/>
+        <v>99</v>
+      </c>
+      <c r="I7" s="22"/>
       <c r="J7" s="23"/>
       <c r="K7" s="23"/>
       <c r="L7" s="23"/>
-      <c r="M7" s="22"/>
+      <c r="M7" s="23"/>
       <c r="N7" s="23"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="10"/>
+      <c r="A8" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="23">
+        <v>32</v>
+      </c>
+      <c r="D8" s="22"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="B9" s="13" t="s">
+      <c r="A9" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="23"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A10" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="23">
+        <v>150</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="23"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A11" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="10"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12" s="17" t="s">
-        <v>77</v>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="10"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A14" s="17" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A12" location="HEAD!A1" display="BACK_TO_HEAD"/>
+    <hyperlink ref="A14" location="HEAD!A1" display="BACK_TO_HEAD"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -5738,10 +5823,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD11"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5754,10 +5839,10 @@
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -5816,56 +5901,58 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A3" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="B3" s="13" t="s">
+      <c r="A3" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>94</v>
+      </c>
       <c r="F3" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
+        <v>143</v>
+      </c>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>29</v>
       </c>
       <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="G4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="10"/>
       <c r="H4" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="I4" s="10"/>
+        <v>84</v>
+      </c>
+      <c r="I4" s="14"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
-      <c r="M4" s="14"/>
+      <c r="M4" s="10"/>
       <c r="N4" s="10"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>29</v>
@@ -5876,7 +5963,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="14"/>
       <c r="H5" s="14" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
@@ -5886,98 +5973,144 @@
       <c r="N5" s="10"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="23">
-        <v>32</v>
-      </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
+      <c r="A6" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="10"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="21" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C7" s="23">
-        <v>150</v>
-      </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="22"/>
+        <v>32</v>
+      </c>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="23"/>
       <c r="H7" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="I7" s="23"/>
+        <v>151</v>
+      </c>
+      <c r="I7" s="22"/>
       <c r="J7" s="23"/>
       <c r="K7" s="23"/>
       <c r="L7" s="23"/>
-      <c r="M7" s="22"/>
+      <c r="M7" s="23"/>
       <c r="N7" s="23"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="10"/>
+      <c r="A8" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="23">
+        <v>32</v>
+      </c>
+      <c r="D8" s="22"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="B9" s="13" t="s">
+      <c r="A9" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="23"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A10" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="23">
+        <v>150</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="23"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A11" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
